--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="50" width="9" style="2" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="2"/>
+    <col min="6" max="72" width="9" style="2" customWidth="1"/>
+    <col min="73" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -754,7 +754,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E15"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="49" width="9" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="9" style="2"/>
+    <col min="6" max="71" width="9" style="2" customWidth="1"/>
+    <col min="72" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -825,6 +825,7 @@
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -836,6 +837,7 @@
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="73" width="9" style="2" customWidth="1"/>
-    <col min="74" max="16384" width="9" style="2"/>
+    <col min="6" max="77" width="9" style="2" customWidth="1"/>
+    <col min="78" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="72" width="9" style="2" customWidth="1"/>
-    <col min="73" max="16384" width="9" style="2"/>
+    <col min="6" max="76" width="9" style="2" customWidth="1"/>
+    <col min="77" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -997,7 +997,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1010,7 +1010,6 @@
       <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="77" width="9" style="2" customWidth="1"/>
-    <col min="78" max="16384" width="9" style="2"/>
+    <col min="6" max="85" width="9" style="2" customWidth="1"/>
+    <col min="86" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="76" width="9" style="2" customWidth="1"/>
-    <col min="77" max="16384" width="9" style="2"/>
+    <col min="6" max="84" width="9" style="2" customWidth="1"/>
+    <col min="85" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -825,7 +825,6 @@
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -837,7 +836,6 @@
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -995,9 +993,8 @@
       <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1010,6 +1007,7 @@
       <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="85" width="9" style="2" customWidth="1"/>
-    <col min="86" max="16384" width="9" style="2"/>
+    <col min="6" max="86" width="9" style="2" customWidth="1"/>
+    <col min="87" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="84" width="9" style="2" customWidth="1"/>
-    <col min="85" max="16384" width="9" style="2"/>
+    <col min="6" max="85" width="9" style="2" customWidth="1"/>
+    <col min="86" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -798,7 +798,6 @@
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -813,7 +812,6 @@
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3"/>
     </row>
     <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -878,7 +876,6 @@
       <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -893,7 +890,6 @@
       <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -908,7 +904,6 @@
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -923,7 +918,6 @@
       <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -938,7 +932,6 @@
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -953,7 +946,6 @@
       <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -994,7 +986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1007,7 +999,6 @@
       <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="86" width="9" style="2" customWidth="1"/>
-    <col min="87" max="16384" width="9" style="2"/>
+    <col min="6" max="88" width="9" style="2" customWidth="1"/>
+    <col min="89" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="85" width="9" style="2" customWidth="1"/>
-    <col min="86" max="16384" width="9" style="2"/>
+    <col min="6" max="87" width="9" style="2" customWidth="1"/>
+    <col min="88" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\futureloan_web_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftwareTest\Jenkins\workspace\futureloan_web_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="88" width="9" style="2" customWidth="1"/>
-    <col min="89" max="16384" width="9" style="2"/>
+    <col min="6" max="91" width="9" style="2" customWidth="1"/>
+    <col min="92" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -745,7 +745,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="87" width="9" style="2" customWidth="1"/>
-    <col min="88" max="16384" width="9" style="2"/>
+    <col min="6" max="90" width="9" style="2" customWidth="1"/>
+    <col min="91" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="91" width="9" style="2" customWidth="1"/>
-    <col min="92" max="16384" width="9" style="2"/>
+    <col min="6" max="92" width="9" style="2" customWidth="1"/>
+    <col min="93" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="90" width="9" style="2" customWidth="1"/>
-    <col min="91" max="16384" width="9" style="2"/>
+    <col min="6" max="91" width="9" style="2" customWidth="1"/>
+    <col min="92" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="92" width="9" style="2" customWidth="1"/>
-    <col min="93" max="16384" width="9" style="2"/>
+    <col min="6" max="93" width="9" style="2" customWidth="1"/>
+    <col min="94" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -764,8 +764,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="91" width="9" style="2" customWidth="1"/>
-    <col min="92" max="16384" width="9" style="2"/>
+    <col min="6" max="92" width="9" style="2" customWidth="1"/>
+    <col min="93" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -798,6 +798,7 @@
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -812,6 +813,7 @@
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -823,6 +825,7 @@
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -834,6 +837,7 @@
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -876,6 +880,7 @@
       <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -890,6 +895,7 @@
       <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -904,6 +910,7 @@
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -918,6 +925,7 @@
       <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -932,6 +940,7 @@
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -946,6 +955,7 @@
       <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -986,7 +996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -999,6 +1009,7 @@
       <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="93" width="9" style="2" customWidth="1"/>
-    <col min="94" max="16384" width="9" style="2"/>
+    <col min="6" max="94" width="9" style="2" customWidth="1"/>
+    <col min="95" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -620,7 +620,6 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -635,7 +634,6 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -650,7 +648,6 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -665,7 +662,6 @@
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -680,7 +676,6 @@
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -695,7 +690,6 @@
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -710,7 +704,6 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -725,7 +718,6 @@
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -740,7 +732,6 @@
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -753,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
@@ -764,8 +755,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="92" width="9" style="2" customWidth="1"/>
-    <col min="93" max="16384" width="9" style="2"/>
+    <col min="6" max="93" width="9" style="2" customWidth="1"/>
+    <col min="94" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -825,7 +816,6 @@
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -996,7 +986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1009,7 +999,6 @@
       <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/web_cases.xlsx
+++ b/data/web_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
@@ -586,8 +586,8 @@
     <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="94" width="9" style="2" customWidth="1"/>
-    <col min="95" max="16384" width="9" style="2"/>
+    <col min="6" max="95" width="9" style="2" customWidth="1"/>
+    <col min="96" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -620,6 +620,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -634,6 +635,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -648,6 +650,7 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -662,6 +665,7 @@
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -676,6 +680,7 @@
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -690,6 +695,7 @@
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -704,6 +710,7 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -718,6 +725,7 @@
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -744,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
@@ -755,8 +763,8 @@
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="93" width="9" style="2" customWidth="1"/>
-    <col min="94" max="16384" width="9" style="2"/>
+    <col min="6" max="94" width="9" style="2" customWidth="1"/>
+    <col min="95" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -789,7 +797,6 @@
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -804,7 +811,6 @@
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3"/>
     </row>
     <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -827,7 +833,6 @@
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -870,7 +875,6 @@
       <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -885,7 +889,6 @@
       <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -900,7 +903,6 @@
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -915,7 +917,6 @@
       <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -930,7 +931,6 @@
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -945,7 +945,6 @@
       <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
